--- a/Original Excel Files/M.xlsx
+++ b/Original Excel Files/M.xlsx
@@ -1,10 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9302"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="24026"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{67B17470-C660-4498-A00F-D1ED8AE6343C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="165" windowWidth="14805" windowHeight="7950"/>
+    <workbookView xWindow="29895" yWindow="1110" windowWidth="21600" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -264,7 +265,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -342,7 +343,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -353,14 +354,28 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -371,6 +386,9 @@
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -419,7 +437,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -452,9 +470,26 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -487,6 +522,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -662,17 +714,17 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:I38"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:G1"/>
+      <selection activeCell="F26" sqref="F26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="9" t="s">
+      <c r="A1" s="8" t="s">
         <v>80</v>
       </c>
       <c r="B1" t="s">
@@ -689,17 +741,17 @@
       </c>
     </row>
     <row r="2" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="7" t="s">
+      <c r="A2" s="6" t="s">
         <v>56</v>
       </c>
       <c r="B2" s="4"/>
-      <c r="C2" s="7" t="s">
+      <c r="C2" s="6" t="s">
         <v>57</v>
       </c>
-      <c r="D2" s="8">
+      <c r="F2" s="7">
         <v>1986</v>
       </c>
-      <c r="E2" s="7" t="s">
+      <c r="G2" s="6" t="s">
         <v>58</v>
       </c>
     </row>
@@ -744,341 +796,398 @@
       <c r="I4" s="1"/>
     </row>
     <row r="5" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="7" t="s">
+      <c r="A5" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="B5" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="C5" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="D5" s="4"/>
+      <c r="E5" s="4"/>
+      <c r="F5" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="G5" s="10" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="9" t="s">
+        <v>0</v>
+      </c>
+      <c r="B6" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="C6" s="9" t="s">
+        <v>2</v>
+      </c>
+      <c r="D6" s="15"/>
+      <c r="E6" s="15"/>
+      <c r="F6" s="1">
+        <v>1971</v>
+      </c>
+      <c r="G6" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="10" t="s">
+        <v>0</v>
+      </c>
+      <c r="B7" s="10" t="s">
+        <v>1</v>
+      </c>
+      <c r="C7" s="10" t="s">
+        <v>2</v>
+      </c>
+      <c r="D7" s="14"/>
+      <c r="E7" s="14"/>
+      <c r="F7" s="17">
+        <v>1971</v>
+      </c>
+      <c r="G7" s="10" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A8" s="6" t="s">
+        <v>59</v>
+      </c>
+      <c r="B8" s="4"/>
+      <c r="C8" s="6" t="s">
+        <v>60</v>
+      </c>
+      <c r="F8" s="7">
+        <v>1996</v>
+      </c>
+      <c r="G8" s="6" t="s">
+        <v>61</v>
+      </c>
+      <c r="H8" s="11"/>
+      <c r="I8" s="11"/>
+    </row>
+    <row r="9" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A9" s="13" t="s">
+        <v>62</v>
+      </c>
+      <c r="B9" s="14"/>
+      <c r="C9" s="13" t="s">
+        <v>60</v>
+      </c>
+      <c r="F9" s="16">
+        <v>1992</v>
+      </c>
+      <c r="G9" s="13" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A10" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="B10" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="C10" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="D10" s="4"/>
+      <c r="E10" s="4"/>
+      <c r="F10" s="10" t="s">
+        <v>17</v>
+      </c>
+      <c r="G10" s="10" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A11" s="12" t="s">
+        <v>19</v>
+      </c>
+      <c r="B11" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="C11" s="10" t="s">
+        <v>21</v>
+      </c>
+      <c r="D11" s="14"/>
+      <c r="E11" s="14"/>
+      <c r="F11" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="G11" s="10" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A12" s="12" t="s">
+        <v>23</v>
+      </c>
+      <c r="B12" s="10" t="s">
+        <v>24</v>
+      </c>
+      <c r="C12" s="10" t="s">
+        <v>25</v>
+      </c>
+      <c r="D12" s="14"/>
+      <c r="E12" s="14"/>
+      <c r="F12" s="10" t="s">
+        <v>26</v>
+      </c>
+      <c r="G12" s="10" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A13" s="6" t="s">
+        <v>64</v>
+      </c>
+      <c r="B13" s="4"/>
+      <c r="C13" s="6" t="s">
+        <v>65</v>
+      </c>
+      <c r="F13" s="7">
+        <v>1960</v>
+      </c>
+      <c r="G13" s="6" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A14" s="13" t="s">
+        <v>67</v>
+      </c>
+      <c r="B14" s="14"/>
+      <c r="C14" s="13" t="s">
+        <v>68</v>
+      </c>
+      <c r="F14" s="16">
+        <v>1960</v>
+      </c>
+      <c r="G14" s="13" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A15" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="B15" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="C15" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="D15" s="4"/>
+      <c r="E15" s="4"/>
+      <c r="F15" s="10" t="s">
+        <v>31</v>
+      </c>
+      <c r="G15" s="10" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A16" s="11" t="s">
+        <v>51</v>
+      </c>
+      <c r="B16" s="11" t="s">
+        <v>52</v>
+      </c>
+      <c r="C16" s="11" t="s">
+        <v>53</v>
+      </c>
+      <c r="D16" s="11"/>
+      <c r="E16" s="11"/>
+      <c r="F16" s="11" t="s">
+        <v>54</v>
+      </c>
+      <c r="G16" s="11" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A17" s="6" t="s">
         <v>70</v>
       </c>
-      <c r="B5" s="4"/>
-      <c r="C5" s="7" t="s">
+      <c r="B17" s="4"/>
+      <c r="C17" s="6" t="s">
         <v>71</v>
       </c>
-      <c r="D5" s="8">
+      <c r="F17" s="7">
         <v>1967</v>
       </c>
-      <c r="E5" s="7" t="s">
+      <c r="G17" s="6" t="s">
         <v>72</v>
       </c>
-      <c r="F5" s="1"/>
-      <c r="G5" s="1"/>
-      <c r="H5" s="1"/>
-      <c r="I5" s="1"/>
-    </row>
-    <row r="6" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="B6" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="C6" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="D6" s="4"/>
-      <c r="E6" s="4"/>
-      <c r="F6" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="G6" s="3" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="7" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B7" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C7" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D7" s="2"/>
-      <c r="E7" s="2"/>
-      <c r="F7" s="2"/>
-      <c r="G7" s="2"/>
-      <c r="H7" s="1">
-        <v>1971</v>
-      </c>
-      <c r="I7" s="1" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="8" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="B8" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="C8" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="D8" s="4"/>
-      <c r="E8" s="4"/>
-      <c r="F8" s="4"/>
-      <c r="G8" s="4"/>
-      <c r="H8" s="6">
-        <v>1971</v>
-      </c>
-      <c r="I8" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="9" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="10" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="7" t="s">
-        <v>59</v>
-      </c>
-      <c r="B10" s="4"/>
-      <c r="C10" s="7" t="s">
-        <v>60</v>
-      </c>
-      <c r="D10" s="8">
-        <v>1996</v>
-      </c>
-      <c r="E10" s="7" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="12" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="13" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="B13" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="C13" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="D13" s="4"/>
-      <c r="E13" s="4"/>
-      <c r="F13" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="G13" s="3" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="14" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="15" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="7" t="s">
-        <v>64</v>
-      </c>
-      <c r="B15" s="4"/>
-      <c r="C15" s="7" t="s">
-        <v>65</v>
-      </c>
-      <c r="D15" s="8">
-        <v>1960</v>
-      </c>
-      <c r="E15" s="7" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="16" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="5" t="s">
-        <v>28</v>
-      </c>
-      <c r="B16" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="C16" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="D16" s="4"/>
-      <c r="E16" s="4"/>
-      <c r="F16" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="G16" s="3" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="17" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="7" t="s">
-        <v>67</v>
-      </c>
-      <c r="B17" s="4"/>
-      <c r="C17" s="7" t="s">
-        <v>68</v>
-      </c>
-      <c r="D17" s="8">
-        <v>1960</v>
-      </c>
-      <c r="E17" s="7" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A18" t="s">
-        <v>51</v>
-      </c>
-      <c r="B18" t="s">
-        <v>52</v>
-      </c>
-      <c r="C18" t="s">
-        <v>53</v>
-      </c>
-      <c r="F18" t="s">
-        <v>54</v>
-      </c>
-      <c r="G18" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="20" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="21" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A21" s="7" t="s">
-        <v>62</v>
+      <c r="H17" s="1"/>
+      <c r="I17" s="1"/>
+    </row>
+    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A18" s="12" t="s">
+        <v>33</v>
+      </c>
+      <c r="B18" s="10" t="s">
+        <v>34</v>
+      </c>
+      <c r="C18" s="10" t="s">
+        <v>35</v>
+      </c>
+      <c r="D18" s="14"/>
+      <c r="E18" s="14"/>
+      <c r="F18" s="10" t="s">
+        <v>36</v>
+      </c>
+      <c r="G18" s="10" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A19" s="12" t="s">
+        <v>38</v>
+      </c>
+      <c r="B19" s="10" t="s">
+        <v>39</v>
+      </c>
+      <c r="C19" s="10" t="s">
+        <v>40</v>
+      </c>
+      <c r="D19" s="14"/>
+      <c r="E19" s="14"/>
+      <c r="F19" s="10" t="s">
+        <v>41</v>
+      </c>
+      <c r="G19" s="10" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A20" s="12" t="s">
+        <v>43</v>
+      </c>
+      <c r="B20" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="C20" s="10" t="s">
+        <v>21</v>
+      </c>
+      <c r="D20" s="14"/>
+      <c r="E20" s="14"/>
+      <c r="F20" s="10" t="s">
+        <v>44</v>
+      </c>
+      <c r="G20" s="10" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A21" s="6" t="s">
+        <v>73</v>
       </c>
       <c r="B21" s="4"/>
-      <c r="C21" s="7" t="s">
-        <v>60</v>
-      </c>
-      <c r="D21" s="8">
-        <v>1992</v>
-      </c>
-      <c r="E21" s="7" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="22" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="23" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A23" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="B23" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="C23" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="D23" s="4"/>
-      <c r="E23" s="4"/>
-      <c r="F23" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="G23" s="3" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="24" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A24" s="5" t="s">
-        <v>23</v>
-      </c>
-      <c r="B24" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="C24" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="D24" s="4"/>
-      <c r="E24" s="4"/>
-      <c r="F24" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="G24" s="3" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="29" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="30" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A30" s="5" t="s">
-        <v>33</v>
-      </c>
-      <c r="B30" s="3" t="s">
-        <v>34</v>
-      </c>
-      <c r="C30" s="3" t="s">
-        <v>35</v>
-      </c>
-      <c r="D30" s="4"/>
-      <c r="E30" s="4"/>
-      <c r="F30" s="3" t="s">
-        <v>36</v>
-      </c>
-      <c r="G30" s="3" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="31" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="32" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A32" s="5" t="s">
-        <v>43</v>
-      </c>
-      <c r="B32" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="C32" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="D32" s="4"/>
-      <c r="E32" s="4"/>
-      <c r="F32" s="3" t="s">
-        <v>44</v>
-      </c>
-      <c r="G32" s="3" t="s">
-        <v>45</v>
-      </c>
+      <c r="C21" s="6" t="s">
+        <v>74</v>
+      </c>
+      <c r="F21" s="7">
+        <v>1955</v>
+      </c>
+      <c r="G21" s="6" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A22" s="12" t="s">
+        <v>46</v>
+      </c>
+      <c r="B22" s="10" t="s">
+        <v>47</v>
+      </c>
+      <c r="C22" s="10" t="s">
+        <v>48</v>
+      </c>
+      <c r="D22" s="14"/>
+      <c r="E22" s="14"/>
+      <c r="F22" s="10" t="s">
+        <v>49</v>
+      </c>
+      <c r="G22" s="10" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="23" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A23" s="11"/>
+      <c r="B23" s="11"/>
+      <c r="C23" s="11"/>
+      <c r="D23" s="11"/>
+      <c r="E23" s="11"/>
+      <c r="F23" s="11"/>
+      <c r="G23" s="11"/>
+    </row>
+    <row r="24" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A24" s="11"/>
+      <c r="B24" s="11"/>
+      <c r="C24" s="11"/>
+      <c r="D24" s="11"/>
+      <c r="E24" s="11"/>
+      <c r="F24" s="11"/>
+      <c r="G24" s="11"/>
+    </row>
+    <row r="29" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="30" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A30" s="11"/>
+      <c r="B30" s="11"/>
+      <c r="C30" s="11"/>
+      <c r="D30" s="11"/>
+      <c r="E30" s="11"/>
+      <c r="F30" s="11"/>
+      <c r="G30" s="11"/>
+    </row>
+    <row r="31" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="32" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A32" s="11"/>
+      <c r="B32" s="11"/>
+      <c r="C32" s="11"/>
+      <c r="D32" s="11"/>
+      <c r="E32" s="11"/>
+      <c r="F32" s="11"/>
+      <c r="G32" s="11"/>
     </row>
     <row r="33" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A33" s="7" t="s">
-        <v>73</v>
-      </c>
-      <c r="B33" s="4"/>
-      <c r="C33" s="7" t="s">
-        <v>74</v>
-      </c>
-      <c r="D33" s="8">
-        <v>1955</v>
-      </c>
-      <c r="E33" s="7" t="s">
-        <v>75</v>
-      </c>
+      <c r="A33" s="11"/>
+      <c r="B33" s="11"/>
+      <c r="C33" s="11"/>
+      <c r="D33" s="11"/>
+      <c r="E33" s="11"/>
     </row>
     <row r="34" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="35" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A35" s="5" t="s">
-        <v>38</v>
-      </c>
-      <c r="B35" s="3" t="s">
-        <v>39</v>
-      </c>
-      <c r="C35" s="3" t="s">
-        <v>40</v>
-      </c>
-      <c r="D35" s="4"/>
-      <c r="E35" s="4"/>
-      <c r="F35" s="3" t="s">
-        <v>41</v>
-      </c>
-      <c r="G35" s="3" t="s">
-        <v>42</v>
-      </c>
+      <c r="A35" s="11"/>
+      <c r="B35" s="11"/>
+      <c r="C35" s="11"/>
+      <c r="D35" s="11"/>
+      <c r="E35" s="11"/>
+      <c r="F35" s="11"/>
+      <c r="G35" s="11"/>
     </row>
     <row r="37" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="38" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A38" s="5" t="s">
-        <v>46</v>
-      </c>
-      <c r="B38" s="3" t="s">
-        <v>47</v>
-      </c>
-      <c r="C38" s="3" t="s">
-        <v>48</v>
-      </c>
-      <c r="D38" s="4"/>
-      <c r="E38" s="4"/>
-      <c r="F38" s="3" t="s">
-        <v>49</v>
-      </c>
-      <c r="G38" s="3" t="s">
-        <v>50</v>
-      </c>
+      <c r="A38" s="11"/>
+      <c r="B38" s="11"/>
+      <c r="C38" s="11"/>
+      <c r="D38" s="11"/>
+      <c r="E38" s="11"/>
+      <c r="F38" s="11"/>
+      <c r="G38" s="11"/>
     </row>
   </sheetData>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A1:I38">
+    <sortCondition ref="A1:A38"/>
+  </sortState>
   <hyperlinks>
-    <hyperlink ref="A1" r:id="rId1" display="http://unistar.uni.edu/search~S1?/cHM24+.M2613+1985/chm+++24+m2613+1985/-3,-1,,E/browse"/>
+    <hyperlink ref="A1" r:id="rId1" display="http://unistar.uni.edu/search~S1?/cHM24+.M2613+1985/chm+++24+m2613+1985/-3,-1,,E/browse" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId2"/>
@@ -1086,7 +1195,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -1098,7 +1207,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
